--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7364,7 +7365,6 @@
           <t>东吴移动互联灵活配置混合C</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>93.58</t>
@@ -7380,6 +7380,3102 @@
       </c>
       <c r="H71" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>199.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.8063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3896</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.8871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5449</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5828</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5607</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4526</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4483</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2349</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1272</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1157</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9124</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8321</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6563</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5647</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5403</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005076</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>59.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011146</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011147</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信气候变化责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10481,4 +10482,8418 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H221"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>259.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.8273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.4741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>400015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新能源汽车主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>201.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.7729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.3386</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.0853</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.0596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2696</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7734</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6583</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3039</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9772</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9620</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8711</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7771</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5504</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4860</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.4702</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2864</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2596</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2474</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2406</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2400</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1656</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1542</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0988</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0018</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9752</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9470</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8998</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7935</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7759</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5237</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5073</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5051</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3694</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>67.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18896,4 +18897,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>220</v>
+      </c>
+      <c r="D2" t="n">
+        <v>144.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>86.31999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.45999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18905,7 +18906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18916,17 +18917,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18936,14 +18957,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>220</v>
-      </c>
-      <c r="D2" t="n">
-        <v>144.46</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.7463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -18952,14 +18995,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>86.31999999999999</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -18968,14 +19033,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.62</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -18984,13 +19071,3949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2967</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1758</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0552</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9286</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8046</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6904</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>220</v>
+      </c>
+      <c r="D3" t="n">
+        <v>144.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86.31999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>110</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>86.45999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22912,7 +22913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22923,17 +22924,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22943,14 +22964,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.23</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.9893</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -22959,14 +23002,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>220</v>
-      </c>
-      <c r="D3" t="n">
-        <v>144.46</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -22975,14 +23040,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86.31999999999999</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -22991,14 +23078,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" t="n">
-        <v>58.62</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -23007,13 +23116,3131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0329</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7904</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7607</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7588</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7473</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7454</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7308</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6534</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4816</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4529</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>220</v>
+      </c>
+      <c r="D4" t="n">
+        <v>144.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.31999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>110</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>86.45999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26123,7 +26124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26134,17 +26135,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26154,14 +26175,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.65</v>
+          <t>002190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理新能源主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -26170,14 +26213,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>104</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.23</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -26186,14 +26251,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>220</v>
-      </c>
-      <c r="D4" t="n">
-        <v>144.46</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1802</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -26202,14 +26289,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86.31999999999999</v>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -26218,14 +26327,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>58.62</v>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -26234,13 +26365,3375 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2797</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0986</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9732</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8801</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8670</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7971</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7328</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5509</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004925</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013151</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信低碳环保行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D5" t="n">
+        <v>144.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>86.31999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>70</v>
+      </c>
+      <c r="D7" t="n">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>110</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>86.45999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
+++ b/数据整理/stocks/A股/创业板/300037-新宙邦.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>39.81</v>
+        <v>31.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>39.65</v>
+        <v>39.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n">
-        <v>56.23</v>
+        <v>39.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>144.46</v>
+        <v>56.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D6" t="n">
-        <v>86.31999999999999</v>
+        <v>144.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>58.62</v>
+        <v>86.31999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>110</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>86.45999999999999</v>
       </c>
     </row>
@@ -600,6 +617,2340 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实环保低碳股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0250</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6778</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6709</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银新材料新能源股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4075,7 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7285,7 +9636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11291,7 +13642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19705,7 +22056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22801,7 +25152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25510,7 +27861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
